--- a/Team-Data/2010-11/3-29-2010-11.xlsx
+++ b/Team-Data/2010-11/3-29-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="n">
         <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J2" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>6.3</v>
@@ -696,22 +763,22 @@
         <v>17.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O2" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P2" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T2" t="n">
         <v>39.6</v>
@@ -726,7 +793,7 @@
         <v>6.1</v>
       </c>
       <c r="X2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y2" t="n">
         <v>4.3</v>
@@ -735,19 +802,19 @@
         <v>18.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
         <v>3</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -762,10 +829,10 @@
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -783,31 +850,31 @@
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
       </c>
       <c r="AU2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.704</v>
+        <v>0.699</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>76.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
         <v>5.1</v>
@@ -878,7 +945,7 @@
         <v>13.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
         <v>17.9</v>
@@ -887,28 +954,28 @@
         <v>23.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
         <v>23.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
@@ -920,28 +987,28 @@
         <v>20.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>5</v>
       </c>
       <c r="AF3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,37 +1026,37 @@
         <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>16</v>
@@ -1001,7 +1068,7 @@
         <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.431</v>
+        <v>0.425</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="J4" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>4.9</v>
@@ -1060,16 +1127,16 @@
         <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O4" t="n">
         <v>18.9</v>
       </c>
       <c r="P4" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
@@ -1084,7 +1151,7 @@
         <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
@@ -1096,28 +1163,28 @@
         <v>6.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA4" t="n">
         <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>18</v>
@@ -1135,7 +1202,7 @@
         <v>28</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN4" t="n">
         <v>29</v>
@@ -1147,37 +1214,37 @@
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
         <v>18</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
         <v>28</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
         <v>53</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.736</v>
+        <v>0.726</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
@@ -1230,10 +1297,10 @@
         <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
@@ -1242,7 +1309,7 @@
         <v>17.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O5" t="n">
         <v>18.1</v>
@@ -1251,13 +1318,13 @@
         <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.734</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
         <v>44.3</v>
@@ -1278,19 +1345,19 @@
         <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
         <v>98.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>2</v>
@@ -1302,25 +1369,25 @@
         <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1329,13 +1396,13 @@
         <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR5" t="n">
         <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT5" t="n">
         <v>2</v>
@@ -1347,25 +1414,25 @@
         <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>20</v>
       </c>
       <c r="BC5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -1412,10 +1479,10 @@
         <v>34.9</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L6" t="n">
         <v>6.2</v>
@@ -1424,25 +1491,25 @@
         <v>18.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R6" t="n">
         <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="T6" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="U6" t="n">
         <v>20.9</v>
@@ -1454,7 +1521,7 @@
         <v>6.7</v>
       </c>
       <c r="X6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y6" t="n">
         <v>6</v>
@@ -1466,13 +1533,13 @@
         <v>21.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC6" t="n">
         <v>-10.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>30</v>
@@ -1484,7 +1551,7 @@
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
@@ -1496,16 +1563,16 @@
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>9</v>
@@ -1514,10 +1581,10 @@
         <v>25</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT6" t="n">
         <v>20</v>
@@ -1526,22 +1593,22 @@
         <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
         <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -1576,43 +1643,43 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="n">
         <v>21</v>
       </c>
       <c r="G7" t="n">
-        <v>0.708</v>
+        <v>0.712</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J7" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.475</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="O7" t="n">
         <v>17.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.785</v>
@@ -1633,7 +1700,7 @@
         <v>13.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
@@ -1642,7 +1709,7 @@
         <v>3.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>20.1</v>
@@ -1651,10 +1718,10 @@
         <v>100.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1669,13 +1736,13 @@
         <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1687,7 +1754,7 @@
         <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP7" t="n">
         <v>27</v>
@@ -1705,16 +1772,16 @@
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>24</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1723,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="n">
         <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.597</v>
+        <v>0.603</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J8" t="n">
         <v>80.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L8" t="n">
         <v>8.199999999999999</v>
@@ -1788,19 +1855,19 @@
         <v>20.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.392</v>
+        <v>0.391</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S8" t="n">
         <v>32.3</v>
@@ -1824,19 +1891,19 @@
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1851,13 +1918,13 @@
         <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1875,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1893,13 +1960,13 @@
         <v>15</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -1940,19 +2007,19 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" t="n">
-        <v>0.361</v>
+        <v>0.356</v>
       </c>
       <c r="H9" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I9" t="n">
         <v>36.9</v>
@@ -1967,7 +2034,7 @@
         <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N9" t="n">
         <v>0.381</v>
@@ -1976,10 +2043,10 @@
         <v>16.3</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.733</v>
+        <v>0.729</v>
       </c>
       <c r="R9" t="n">
         <v>11.3</v>
@@ -1988,13 +2055,13 @@
         <v>27</v>
       </c>
       <c r="T9" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U9" t="n">
         <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
@@ -2018,7 +2085,7 @@
         <v>-4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2033,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -2042,22 +2109,22 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
       </c>
       <c r="AP9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>28</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>27</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
@@ -2081,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -2125,52 +2192,52 @@
         <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.419</v>
+        <v>0.432</v>
       </c>
       <c r="H10" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
       </c>
       <c r="M10" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N10" t="n">
         <v>0.394</v>
       </c>
       <c r="O10" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q10" t="n">
         <v>0.756</v>
       </c>
       <c r="R10" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
         <v>28.7</v>
       </c>
       <c r="T10" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U10" t="n">
         <v>22.5</v>
@@ -2182,46 +2249,46 @@
         <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
         <v>18.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>103.1</v>
+        <v>103.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL10" t="n">
         <v>5</v>
@@ -2239,10 +2306,10 @@
         <v>30</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>26</v>
@@ -2251,22 +2318,22 @@
         <v>24</v>
       </c>
       <c r="AU10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
@@ -2275,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" t="n">
-        <v>0.542</v>
+        <v>0.521</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J11" t="n">
-        <v>84.90000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.455</v>
       </c>
       <c r="L11" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="O11" t="n">
-        <v>20.2</v>
+        <v>20.7</v>
       </c>
       <c r="P11" t="n">
-        <v>25.3</v>
+        <v>25.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.796</v>
+        <v>0.798</v>
       </c>
       <c r="R11" t="n">
         <v>11.6</v>
       </c>
       <c r="S11" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T11" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U11" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V11" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W11" t="n">
         <v>7.2</v>
       </c>
       <c r="X11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y11" t="n">
         <v>5.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.7</v>
+        <v>106</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2394,7 +2461,7 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>4</v>
@@ -2412,22 +2479,22 @@
         <v>4</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP11" t="n">
         <v>5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>8</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
       </c>
       <c r="AR11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
@@ -2439,25 +2506,25 @@
         <v>6</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX11" t="n">
         <v>18</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB11" t="n">
         <v>3</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>0.446</v>
+        <v>0.44</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,10 +2571,10 @@
         <v>36.4</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
         <v>7.1</v>
@@ -2516,7 +2583,7 @@
         <v>20.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
         <v>19.4</v>
@@ -2525,43 +2592,43 @@
         <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
       </c>
       <c r="X12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA12" t="n">
         <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2585,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>10</v>
@@ -2603,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR12" t="n">
         <v>14</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>29</v>
@@ -2633,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
         <v>29</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>0.397</v>
+        <v>0.392</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2689,7 +2756,7 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>6.3</v>
@@ -2698,31 +2765,31 @@
         <v>18.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
         <v>19</v>
       </c>
       <c r="P13" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T13" t="n">
         <v>42</v>
       </c>
       <c r="U13" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V13" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2740,10 +2807,10 @@
         <v>22.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AD13" t="n">
         <v>3</v>
@@ -2770,7 +2837,7 @@
         <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM13" t="n">
         <v>11</v>
@@ -2791,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="AS13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
         <v>11</v>
@@ -2806,22 +2873,22 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB13" t="n">
         <v>19</v>
       </c>
       <c r="BC13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.722</v>
+        <v>0.726</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.466</v>
@@ -2880,7 +2947,7 @@
         <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
         <v>18.7</v>
@@ -2889,7 +2956,7 @@
         <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R14" t="n">
         <v>12.2</v>
@@ -2922,31 +2989,31 @@
         <v>20.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="AC14" t="n">
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>8</v>
@@ -2961,22 +3028,22 @@
         <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>12</v>
@@ -2985,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
         <v>11</v>
@@ -2994,7 +3061,7 @@
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA14" t="n">
         <v>19</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>41</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3059,10 +3126,10 @@
         <v>3.7</v>
       </c>
       <c r="M15" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O15" t="n">
         <v>18.3</v>
@@ -3080,10 +3147,10 @@
         <v>29.1</v>
       </c>
       <c r="T15" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
         <v>13.9</v>
@@ -3098,7 +3165,7 @@
         <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
         <v>21.4</v>
@@ -3107,19 +3174,19 @@
         <v>100</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="n">
         <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>7</v>
@@ -3143,7 +3210,7 @@
         <v>28</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
         <v>14</v>
@@ -3161,7 +3228,7 @@
         <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>13</v>
@@ -3170,22 +3237,22 @@
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ15" t="n">
         <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -3214,43 +3281,43 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F16" t="n">
         <v>22</v>
       </c>
       <c r="G16" t="n">
-        <v>0.694</v>
+        <v>0.699</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J16" t="n">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L16" t="n">
         <v>6.6</v>
       </c>
       <c r="M16" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O16" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="P16" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q16" t="n">
         <v>0.771</v>
@@ -3265,13 +3332,13 @@
         <v>42.4</v>
       </c>
       <c r="U16" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W16" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X16" t="n">
         <v>5.4</v>
@@ -3280,34 +3347,34 @@
         <v>2.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA16" t="n">
         <v>21.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3319,7 +3386,7 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN16" t="n">
         <v>11</v>
@@ -3340,19 +3407,19 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW16" t="n">
         <v>25</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
@@ -3367,7 +3434,7 @@
         <v>8</v>
       </c>
       <c r="BC16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>0.403</v>
+        <v>0.397</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,16 +3481,16 @@
         <v>34.1</v>
       </c>
       <c r="J17" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.427</v>
       </c>
       <c r="L17" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N17" t="n">
         <v>0.344</v>
@@ -3432,22 +3499,22 @@
         <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="R17" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S17" t="n">
         <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
@@ -3456,13 +3523,13 @@
         <v>7.4</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
@@ -3474,13 +3541,13 @@
         <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
@@ -3510,19 +3577,19 @@
         <v>27</v>
       </c>
       <c r="AP17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
         <v>16</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
         <v>30</v>
@@ -3531,13 +3598,13 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" t="n">
-        <v>0.233</v>
+        <v>0.23</v>
       </c>
       <c r="H18" t="n">
         <v>48.2</v>
@@ -3605,7 +3672,7 @@
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N18" t="n">
         <v>0.375</v>
@@ -3623,7 +3690,7 @@
         <v>13.7</v>
       </c>
       <c r="S18" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T18" t="n">
         <v>45</v>
@@ -3635,22 +3702,22 @@
         <v>17.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA18" t="n">
         <v>21.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>100.8</v>
+        <v>101.1</v>
       </c>
       <c r="AC18" t="n">
         <v>-5.8</v>
@@ -3671,10 +3738,10 @@
         <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK18" t="n">
         <v>27</v>
@@ -3713,7 +3780,7 @@
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
@@ -3722,16 +3789,16 @@
         <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -3763,13 +3830,13 @@
         <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="n">
-        <v>0.306</v>
+        <v>0.319</v>
       </c>
       <c r="H19" t="n">
         <v>48.9</v>
@@ -3778,25 +3845,25 @@
         <v>35.2</v>
       </c>
       <c r="J19" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N19" t="n">
         <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P19" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.759</v>
@@ -3805,13 +3872,13 @@
         <v>11.2</v>
       </c>
       <c r="S19" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T19" t="n">
         <v>41.5</v>
       </c>
       <c r="U19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V19" t="n">
         <v>14.4</v>
@@ -3826,19 +3893,19 @@
         <v>4.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.40000000000001</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6</v>
+        <v>-5.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3874,7 +3941,7 @@
         <v>25</v>
       </c>
       <c r="AP19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ19" t="n">
         <v>18</v>
@@ -3883,16 +3950,16 @@
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>14</v>
       </c>
       <c r="AU19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV19" t="n">
         <v>18</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>30</v>
@@ -3901,19 +3968,19 @@
         <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20" t="n">
         <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
       </c>
       <c r="I20" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J20" t="n">
         <v>78.3</v>
@@ -3969,25 +4036,25 @@
         <v>5.4</v>
       </c>
       <c r="M20" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O20" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
         <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
         <v>40.5</v>
@@ -3999,31 +4066,31 @@
         <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB20" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD20" t="n">
         <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>11</v>
@@ -4047,7 +4114,7 @@
         <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN20" t="n">
         <v>15</v>
@@ -4065,19 +4132,19 @@
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU20" t="n">
         <v>21</v>
       </c>
-      <c r="AU20" t="n">
-        <v>23</v>
-      </c>
       <c r="AV20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>20</v>
@@ -4089,13 +4156,13 @@
         <v>17</v>
       </c>
       <c r="BA20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F21" t="n">
         <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.479</v>
+        <v>0.486</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4145,7 +4212,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L21" t="n">
         <v>9.199999999999999</v>
@@ -4154,16 +4221,16 @@
         <v>25</v>
       </c>
       <c r="N21" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
         <v>20.5</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
@@ -4172,10 +4239,10 @@
         <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
         <v>13.9</v>
@@ -4190,13 +4257,13 @@
         <v>4.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
         <v>20.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC21" t="n">
         <v>0.3</v>
@@ -4205,13 +4272,13 @@
         <v>3</v>
       </c>
       <c r="AE21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF21" t="n">
         <v>17</v>
       </c>
-      <c r="AF21" t="n">
-        <v>18</v>
-      </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>22</v>
@@ -4220,7 +4287,7 @@
         <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK21" t="n">
         <v>19</v>
@@ -4232,40 +4299,40 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
       </c>
       <c r="AR21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS21" t="n">
         <v>22</v>
       </c>
-      <c r="AS21" t="n">
-        <v>23</v>
-      </c>
       <c r="AT21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -4321,28 +4388,28 @@
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
-        <v>80.59999999999999</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K22" t="n">
         <v>0.463</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M22" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.352</v>
+        <v>0.35</v>
       </c>
       <c r="O22" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.824</v>
@@ -4351,19 +4418,19 @@
         <v>10.8</v>
       </c>
       <c r="S22" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T22" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>5.8</v>
@@ -4372,19 +4439,19 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA22" t="n">
         <v>21.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.6</v>
+        <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4399,16 +4466,16 @@
         <v>3</v>
       </c>
       <c r="AI22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK22" t="n">
         <v>14</v>
       </c>
-      <c r="AJ22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>11</v>
-      </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>19</v>
@@ -4429,31 +4496,31 @@
         <v>17</v>
       </c>
       <c r="AS22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT22" t="n">
         <v>9</v>
       </c>
-      <c r="AT22" t="n">
-        <v>8</v>
-      </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AW22" t="n">
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -4488,31 +4555,31 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n">
         <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.63</v>
+        <v>0.635</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
         <v>78.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="L23" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M23" t="n">
         <v>25.7</v>
@@ -4524,25 +4591,25 @@
         <v>17.8</v>
       </c>
       <c r="P23" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R23" t="n">
         <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U23" t="n">
         <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
@@ -4560,10 +4627,10 @@
         <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AD23" t="n">
         <v>3</v>
@@ -4578,16 +4645,16 @@
         <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
         <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4617,13 +4684,13 @@
         <v>6</v>
       </c>
       <c r="AU23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
         <v>23</v>
       </c>
       <c r="AW23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX23" t="n">
         <v>17</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" t="n">
         <v>38</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="n">
-        <v>0.521</v>
+        <v>0.514</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4703,10 +4770,10 @@
         <v>0.36</v>
       </c>
       <c r="O24" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P24" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="n">
         <v>0.77</v>
@@ -4715,16 +4782,16 @@
         <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
         <v>22.6</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W24" t="n">
         <v>7.6</v>
@@ -4742,16 +4809,16 @@
         <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD24" t="n">
         <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
@@ -4763,31 +4830,31 @@
         <v>5</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
       </c>
       <c r="AM24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO24" t="n">
         <v>24</v>
       </c>
-      <c r="AN24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>20</v>
-      </c>
       <c r="AP24" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR24" t="n">
         <v>21</v>
@@ -4802,13 +4869,13 @@
         <v>6</v>
       </c>
       <c r="AV24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW24" t="n">
         <v>8</v>
       </c>
       <c r="AX24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY24" t="n">
         <v>12</v>
@@ -4820,10 +4887,10 @@
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
         <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M25" t="n">
         <v>23.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.379</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P25" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.762</v>
       </c>
       <c r="R25" t="n">
         <v>10</v>
@@ -4900,46 +4967,46 @@
         <v>30.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="V25" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.3</v>
+        <v>105</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG25" t="n">
         <v>16</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
@@ -4948,7 +5015,7 @@
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4960,10 +5027,10 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
         <v>20</v>
@@ -4975,31 +5042,31 @@
         <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT25" t="n">
         <v>23</v>
       </c>
       <c r="AU25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
         <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.569</v>
+        <v>0.581</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80.40000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S26" t="n">
         <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W26" t="n">
         <v>8.199999999999999</v>
@@ -5097,22 +5164,22 @@
         <v>4.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>10</v>
@@ -5130,22 +5197,22 @@
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>26</v>
@@ -5154,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -5172,7 +5239,7 @@
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5181,13 +5248,13 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>23</v>
       </c>
       <c r="BC26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -5231,52 +5298,52 @@
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J27" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="R27" t="n">
         <v>13.2</v>
       </c>
       <c r="S27" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T27" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V27" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y27" t="n">
         <v>5.5</v>
@@ -5285,16 +5352,16 @@
         <v>22.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
         <v>99.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.2</v>
+        <v>-5.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5309,7 +5376,7 @@
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
         <v>3</v>
@@ -5321,19 +5388,19 @@
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
         <v>20</v>
       </c>
       <c r="AO27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>26</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>28</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,28 +5409,28 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J28" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.474</v>
@@ -5425,16 +5492,16 @@
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
         <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q28" t="n">
         <v>0.766</v>
@@ -5443,25 +5510,25 @@
         <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V28" t="n">
         <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>18.8</v>
@@ -5470,10 +5537,10 @@
         <v>20.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
         <v>3</v>
@@ -5491,7 +5558,7 @@
         <v>26</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
         <v>16</v>
@@ -5512,13 +5579,13 @@
         <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ28" t="n">
         <v>16</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS28" t="n">
         <v>8</v>
@@ -5527,13 +5594,13 @@
         <v>13</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX28" t="n">
         <v>19</v>
@@ -5542,7 +5609,7 @@
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>18</v>
@@ -5551,7 +5618,7 @@
         <v>6</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
-        <v>0.278</v>
+        <v>0.274</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L29" t="n">
         <v>4.3</v>
@@ -5628,10 +5695,10 @@
         <v>28.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V29" t="n">
         <v>14.7</v>
@@ -5643,31 +5710,31 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z29" t="n">
         <v>22.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC29" t="n">
         <v>-6.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>18</v>
@@ -5679,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -5691,16 +5758,16 @@
         <v>30</v>
       </c>
       <c r="AO29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP29" t="n">
         <v>19</v>
       </c>
-      <c r="AP29" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5718,19 +5785,19 @@
         <v>17</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="n">
-        <v>0.493</v>
+        <v>0.48</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P30" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T30" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
@@ -5825,43 +5892,43 @@
         <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5870,7 +5937,7 @@
         <v>22</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
         <v>15</v>
@@ -5909,13 +5976,13 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" t="n">
         <v>18</v>
       </c>
       <c r="F31" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G31" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="H31" t="n">
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J31" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K31" t="n">
         <v>0.44</v>
@@ -5971,31 +6038,31 @@
         <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.33</v>
+        <v>0.328</v>
       </c>
       <c r="O31" t="n">
         <v>17.8</v>
       </c>
       <c r="P31" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R31" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S31" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T31" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U31" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V31" t="n">
         <v>15.3</v>
@@ -6016,13 +6083,13 @@
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.8</v>
+        <v>-8.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6037,43 +6104,43 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>27</v>
       </c>
       <c r="AM31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN31" t="n">
         <v>27</v>
       </c>
       <c r="AO31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS31" t="n">
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV31" t="n">
         <v>26</v>
@@ -6088,7 +6155,7 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-29-2010-11</t>
+          <t>2011-03-29</t>
         </is>
       </c>
     </row>
